--- a/MEDIA/2998_拉亞直營時段營業額(2020-10-01~2020-10-31).xlsx
+++ b/MEDIA/2998_拉亞直營時段營業額(2020-10-01~2020-10-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,25 +504,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2160</v>
+        <v>7374</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>380</v>
+        <v>828</v>
       </c>
       <c r="F3" t="n">
-        <v>17.6</v>
+        <v>11.2</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>1780</v>
+        <v>2766</v>
       </c>
       <c r="I3" t="n">
-        <v>82.40000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -534,13 +534,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>51.3</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="n">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -588,61 +588,61 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19226</v>
+        <v>53484</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>4881</v>
+        <v>9828</v>
       </c>
       <c r="F4" t="n">
-        <v>25.4</v>
+        <v>18.4</v>
       </c>
       <c r="G4" t="n">
-        <v>148</v>
+        <v>408</v>
       </c>
       <c r="H4" t="n">
-        <v>10271</v>
+        <v>29232</v>
       </c>
       <c r="I4" t="n">
-        <v>53.4</v>
+        <v>54.7</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>745</v>
+        <v>3805</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>54</v>
+        <v>3354</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="n">
-        <v>2740</v>
+        <v>5100</v>
       </c>
       <c r="R4" t="n">
-        <v>14.3</v>
+        <v>9.5</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>535</v>
+        <v>2165</v>
       </c>
       <c r="U4" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216</v>
+        <v>581</v>
       </c>
       <c r="Z4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -672,34 +672,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26466</v>
+        <v>74033</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="E5" t="n">
-        <v>8386</v>
+        <v>21841</v>
       </c>
       <c r="F5" t="n">
-        <v>31.7</v>
+        <v>29.5</v>
       </c>
       <c r="G5" t="n">
-        <v>196</v>
+        <v>619</v>
       </c>
       <c r="H5" t="n">
-        <v>13025</v>
+        <v>39637</v>
       </c>
       <c r="I5" t="n">
-        <v>49.2</v>
+        <v>53.5</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K5" t="n">
-        <v>1030</v>
+        <v>3330</v>
       </c>
       <c r="L5" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -708,25 +708,25 @@
         <v>35</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>1565</v>
+        <v>2745</v>
       </c>
       <c r="R5" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="S5" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="T5" t="n">
-        <v>2425</v>
+        <v>6445</v>
       </c>
       <c r="U5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>300</v>
+        <v>923</v>
       </c>
       <c r="Z5" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -756,34 +756,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40092</v>
+        <v>107624</v>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="E6" t="n">
-        <v>14099</v>
+        <v>37677</v>
       </c>
       <c r="F6" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>210</v>
+        <v>641</v>
       </c>
       <c r="H6" t="n">
-        <v>17208</v>
+        <v>44952</v>
       </c>
       <c r="I6" t="n">
-        <v>42.9</v>
+        <v>41.8</v>
       </c>
       <c r="J6" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K6" t="n">
-        <v>2755</v>
+        <v>9065</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="n">
-        <v>895</v>
+        <v>2605</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="T6" t="n">
-        <v>5135</v>
+        <v>13325</v>
       </c>
       <c r="U6" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>381</v>
+        <v>1146</v>
       </c>
       <c r="Z6" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -840,34 +840,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37592</v>
+        <v>93873</v>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>342</v>
       </c>
       <c r="E7" t="n">
-        <v>16432</v>
+        <v>43331</v>
       </c>
       <c r="F7" t="n">
-        <v>43.7</v>
+        <v>46.2</v>
       </c>
       <c r="G7" t="n">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="H7" t="n">
-        <v>11540</v>
+        <v>26042</v>
       </c>
       <c r="I7" t="n">
-        <v>30.7</v>
+        <v>27.7</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="K7" t="n">
-        <v>3505</v>
+        <v>9175</v>
       </c>
       <c r="L7" t="n">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -876,25 +876,25 @@
         <v>60</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>1825</v>
+        <v>3880</v>
       </c>
       <c r="R7" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="T7" t="n">
-        <v>4230</v>
+        <v>11385</v>
       </c>
       <c r="U7" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
       <c r="Z7" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -924,34 +924,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32866</v>
+        <v>72146</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="E8" t="n">
-        <v>13553</v>
+        <v>32088</v>
       </c>
       <c r="F8" t="n">
-        <v>41.2</v>
+        <v>44.5</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="H8" t="n">
-        <v>8175</v>
+        <v>18540</v>
       </c>
       <c r="I8" t="n">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
       <c r="J8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>3340</v>
+        <v>5795</v>
       </c>
       <c r="L8" t="n">
-        <v>10.2</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -960,25 +960,25 @@
         <v>33</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>2490</v>
+        <v>3540</v>
       </c>
       <c r="R8" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="S8" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="T8" t="n">
-        <v>5275</v>
+        <v>12150</v>
       </c>
       <c r="U8" t="n">
-        <v>16.1</v>
+        <v>16.8</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>244</v>
+        <v>566</v>
       </c>
       <c r="Z8" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
@@ -1008,34 +1008,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27426</v>
+        <v>65648</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="E9" t="n">
-        <v>14161</v>
+        <v>34031</v>
       </c>
       <c r="F9" t="n">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="H9" t="n">
-        <v>5225</v>
+        <v>13636</v>
       </c>
       <c r="I9" t="n">
-        <v>19.1</v>
+        <v>20.8</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K9" t="n">
-        <v>1440</v>
+        <v>4711</v>
       </c>
       <c r="L9" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1044,25 +1044,25 @@
         <v>535</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="P9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="n">
-        <v>2630</v>
+        <v>3790</v>
       </c>
       <c r="R9" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="S9" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="T9" t="n">
-        <v>3435</v>
+        <v>8945</v>
       </c>
       <c r="U9" t="n">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>192</v>
+        <v>473</v>
       </c>
       <c r="Z9" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -1092,34 +1092,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36796</v>
+        <v>104049</v>
       </c>
       <c r="D10" t="n">
-        <v>147</v>
+        <v>408</v>
       </c>
       <c r="E10" t="n">
-        <v>25175</v>
+        <v>68962</v>
       </c>
       <c r="F10" t="n">
-        <v>68.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="G10" t="n">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="H10" t="n">
-        <v>7146</v>
+        <v>22632</v>
       </c>
       <c r="I10" t="n">
-        <v>19.4</v>
+        <v>21.8</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K10" t="n">
-        <v>1330</v>
+        <v>3920</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1131,22 +1131,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1150</v>
+        <v>2060</v>
       </c>
       <c r="R10" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="T10" t="n">
-        <v>1995</v>
+        <v>6475</v>
       </c>
       <c r="U10" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>251</v>
+        <v>725</v>
       </c>
       <c r="Z10" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -1176,34 +1176,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11992</v>
+        <v>29798</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E11" t="n">
-        <v>4751</v>
+        <v>16759</v>
       </c>
       <c r="F11" t="n">
-        <v>39.6</v>
+        <v>56.2</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="H11" t="n">
-        <v>5800</v>
+        <v>9823</v>
       </c>
       <c r="I11" t="n">
-        <v>48.4</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>920</v>
+        <v>2585</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1221,16 +1221,16 @@
         <v>165</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>335</v>
+        <v>445</v>
       </c>
       <c r="U11" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1242,10 +1242,94 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="Z11" t="n">
-        <v>138</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>219</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>104</v>
+      </c>
+      <c r="F12" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>115</v>
+      </c>
+      <c r="I12" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
